--- a/xlsx/大盆地沙漠_intext.xlsx
+++ b/xlsx/大盆地沙漠_intext.xlsx
@@ -29,13 +29,13 @@
     <t>内华达州</t>
   </si>
   <si>
-    <t>政策_政策_美國_大盆地沙漠</t>
+    <t>政策_政策_美国_大盆地沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biogeographic_realm</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>內華達山脈 (美國)</t>
+    <t>内华达山脉 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%96%A9%E5%A5%87%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>瓦薩奇山脈</t>
+    <t>瓦萨奇山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大盆地國家公園</t>
+    <t>大盆地国家公园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_California_Press</t>
